--- a/controller/src/main/resources/jxls_templates/kehuxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/kehuxinxi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB76C188-7D8F-48CF-A0E4-220DDA6F412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255872D0-333F-4208-B2A0-C9698C824BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>客户名称(中文)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,18 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联络人(中文)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联络人(日文)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联络人(英文)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联系电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,18 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址(中文2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址(日文2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址(英文2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人员规模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +72,46 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称(日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称(英)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联络人(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联络人(日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联络人(英)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址(日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址(英)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司法人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,70 +490,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
